--- a/REGULAR/CCT/CHACON, ELISA.xlsx
+++ b/REGULAR/CCT/CHACON, ELISA.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1094,6 +1094,15 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>01/09-12/2024</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1869,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K558" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K559" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2189,12 +2198,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K558"/>
+  <dimension ref="A2:K559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A499" activePane="bottomLeft"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="H522" sqref="H522"/>
+      <pane ySplit="1890" topLeftCell="A506" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="J519" sqref="J519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2364,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>88.19399999999996</v>
+        <v>89.44399999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2365,7 +2374,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>182</v>
+        <v>179.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13702,15 +13711,19 @@
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="40"/>
+      <c r="A521" s="40">
+        <v>45261</v>
+      </c>
       <c r="B521" s="20"/>
-      <c r="C521" s="13"/>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G521" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
@@ -13718,7 +13731,9 @@
       <c r="K521" s="20"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="40"/>
+      <c r="A522" s="48" t="s">
+        <v>351</v>
+      </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
       <c r="D522" s="39"/>
@@ -13734,8 +13749,12 @@
       <c r="K522" s="20"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A523" s="40"/>
-      <c r="B523" s="20"/>
+      <c r="A523" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B523" s="20" t="s">
+        <v>352</v>
+      </c>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
       <c r="E523" s="9"/>
@@ -13744,13 +13763,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H523" s="39"/>
+      <c r="H523" s="39">
+        <v>4</v>
+      </c>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="20"/>
+      <c r="K523" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="40"/>
+      <c r="A524" s="40">
+        <v>45323</v>
+      </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
       <c r="D524" s="39"/>
@@ -13766,7 +13791,9 @@
       <c r="K524" s="20"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A525" s="40"/>
+      <c r="A525" s="40">
+        <v>45352</v>
+      </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
       <c r="D525" s="39"/>
@@ -13782,7 +13809,9 @@
       <c r="K525" s="20"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A526" s="40"/>
+      <c r="A526" s="40">
+        <v>45383</v>
+      </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
       <c r="D526" s="39"/>
@@ -13798,7 +13827,9 @@
       <c r="K526" s="20"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="40"/>
+      <c r="A527" s="40">
+        <v>45413</v>
+      </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
@@ -13814,7 +13845,9 @@
       <c r="K527" s="20"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A528" s="40"/>
+      <c r="A528" s="40">
+        <v>45444</v>
+      </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
       <c r="D528" s="39"/>
@@ -13830,7 +13863,9 @@
       <c r="K528" s="20"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A529" s="40"/>
+      <c r="A529" s="40">
+        <v>45474</v>
+      </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
       <c r="D529" s="39"/>
@@ -13846,7 +13881,9 @@
       <c r="K529" s="20"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="40"/>
+      <c r="A530" s="40">
+        <v>45505</v>
+      </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
       <c r="D530" s="39"/>
@@ -13862,7 +13899,9 @@
       <c r="K530" s="20"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A531" s="40"/>
+      <c r="A531" s="40">
+        <v>45536</v>
+      </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
       <c r="D531" s="39"/>
@@ -13878,7 +13917,9 @@
       <c r="K531" s="20"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="40"/>
+      <c r="A532" s="40">
+        <v>45566</v>
+      </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
       <c r="D532" s="39"/>
@@ -13894,7 +13935,9 @@
       <c r="K532" s="20"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="40"/>
+      <c r="A533" s="40">
+        <v>45597</v>
+      </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
       <c r="D533" s="39"/>
@@ -13910,7 +13953,9 @@
       <c r="K533" s="20"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" s="40"/>
+      <c r="A534" s="40">
+        <v>45627</v>
+      </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
       <c r="D534" s="39"/>
@@ -14294,20 +14339,36 @@
       <c r="K557" s="20"/>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="41"/>
-      <c r="B558" s="15"/>
-      <c r="C558" s="42"/>
-      <c r="D558" s="43"/>
+      <c r="A558" s="40"/>
+      <c r="B558" s="20"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="39"/>
       <c r="E558" s="9"/>
-      <c r="F558" s="15"/>
-      <c r="G558" s="42" t="str">
+      <c r="F558" s="20"/>
+      <c r="G558" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H558" s="43"/>
+      <c r="H558" s="39"/>
       <c r="I558" s="9"/>
-      <c r="J558" s="12"/>
-      <c r="K558" s="15"/>
+      <c r="J558" s="11"/>
+      <c r="K558" s="20"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" s="41"/>
+      <c r="B559" s="15"/>
+      <c r="C559" s="42"/>
+      <c r="D559" s="43"/>
+      <c r="E559" s="9"/>
+      <c r="F559" s="15"/>
+      <c r="G559" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H559" s="43"/>
+      <c r="I559" s="9"/>
+      <c r="J559" s="12"/>
+      <c r="K559" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CCT/CHACON, ELISA.xlsx
+++ b/REGULAR/CCT/CHACON, ELISA.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="362">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1103,6 +1103,30 @@
   </si>
   <si>
     <t>01/09-12/2024</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/10,13,23/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-4-21)</t>
+  </si>
+  <si>
+    <t>3/9,10/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-12)</t>
+  </si>
+  <si>
+    <t>2/24/2023 (23)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1893,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K559" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K564" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2198,12 +2222,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K559"/>
+  <dimension ref="A2:K564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A506" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="J519" sqref="J519"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A500" activePane="bottomLeft"/>
+      <selection activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="K505" sqref="K505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,7 +2388,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>89.44399999999996</v>
+        <v>82.734000000000037</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13336,11 +13360,15 @@
       <c r="A505" s="40">
         <v>44927</v>
       </c>
-      <c r="B505" s="20"/>
+      <c r="B505" s="20" t="s">
+        <v>361</v>
+      </c>
       <c r="C505" s="13">
         <v>1.25</v>
       </c>
-      <c r="D505" s="39"/>
+      <c r="D505" s="39">
+        <v>1</v>
+      </c>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
       <c r="G505" s="13">
@@ -13350,7 +13378,9 @@
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20"/>
+      <c r="K505" s="49">
+        <v>44929</v>
+      </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
@@ -13374,8 +13404,8 @@
       </c>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="49">
-        <v>44981</v>
+      <c r="K506" s="49" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
@@ -13425,88 +13455,86 @@
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C509" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D509" s="39"/>
+        <v>340</v>
+      </c>
+      <c r="C509" s="13"/>
+      <c r="D509" s="39">
+        <v>2</v>
+      </c>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H509" s="39">
-        <v>3.5</v>
-      </c>
+      <c r="G509" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20" t="s">
-        <v>335</v>
+      <c r="K509" s="49" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A510" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C510" s="13">
-        <v>1.25</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C510" s="13"/>
       <c r="D510" s="39">
-        <v>3</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="20" t="s">
-        <v>336</v>
-      </c>
+      <c r="K510" s="49"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A511" s="40"/>
+      <c r="A511" s="40">
+        <v>45017</v>
+      </c>
       <c r="B511" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C511" s="13"/>
-      <c r="D511" s="39">
-        <v>1</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C511" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D511" s="39"/>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
-      <c r="G511" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H511" s="39"/>
+      <c r="G511" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H511" s="39">
+        <v>3.5</v>
+      </c>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="49">
-        <v>45072</v>
+      <c r="K511" s="20" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B512" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B512" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C512" s="13">
         <v>1.25</v>
       </c>
-      <c r="D512" s="39"/>
+      <c r="D512" s="39">
+        <v>3</v>
+      </c>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
       <c r="G512" s="13">
@@ -13516,83 +13544,83 @@
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="20"/>
+      <c r="K512" s="20" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A513" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C513" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D513" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="C513" s="13"/>
+      <c r="D513" s="39">
+        <v>1</v>
+      </c>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H513" s="39"/>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
       <c r="K513" s="49">
-        <v>45119</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B514" s="20" t="s">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="C514" s="13">
         <v>1.25</v>
       </c>
-      <c r="D514" s="39"/>
+      <c r="D514" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
       <c r="G514" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H514" s="39">
-        <v>1</v>
-      </c>
+      <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
-      <c r="K514" s="49">
-        <v>45128</v>
-      </c>
+      <c r="K514" s="20"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A515" s="40"/>
+      <c r="A515" s="40">
+        <v>45108</v>
+      </c>
       <c r="B515" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C515" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H515" s="39">
-        <v>1</v>
-      </c>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H515" s="39"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
       <c r="K515" s="49">
-        <v>45167</v>
+        <v>45119</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -13613,41 +13641,37 @@
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
       <c r="K516" s="49">
-        <v>45176</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A517" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C517" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C517" s="13"/>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G517" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H517" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
-      <c r="K517" s="20" t="s">
-        <v>349</v>
+      <c r="K517" s="49">
+        <v>45167</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B518" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C518" s="13">
         <v>1.25</v>
@@ -13659,43 +13683,49 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H518" s="39"/>
+      <c r="H518" s="39">
+        <v>1</v>
+      </c>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
       <c r="K518" s="49">
-        <v>45245</v>
+        <v>45176</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A519" s="40"/>
+      <c r="A519" s="40">
+        <v>45200</v>
+      </c>
       <c r="B519" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C519" s="13"/>
-      <c r="D519" s="39">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C519" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D519" s="39"/>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
-      <c r="G519" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H519" s="39"/>
+      <c r="G519" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H519" s="39">
+        <v>3</v>
+      </c>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="49">
-        <v>45254</v>
+      <c r="K519" s="20" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="C520" s="13"/>
       <c r="D520" s="39">
-        <v>3</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
@@ -13706,15 +13736,15 @@
       <c r="H520" s="39"/>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20" t="s">
-        <v>350</v>
-      </c>
+      <c r="K520" s="20"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B521" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B521" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C521" s="13">
         <v>1.25</v>
       </c>
@@ -13728,15 +13758,19 @@
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="20"/>
+      <c r="K521" s="49">
+        <v>45245</v>
+      </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="B522" s="20"/>
+      <c r="A522" s="40"/>
+      <c r="B522" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C522" s="13"/>
-      <c r="D522" s="39"/>
+      <c r="D522" s="39">
+        <v>1</v>
+      </c>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
       <c r="G522" s="13" t="str">
@@ -13746,39 +13780,41 @@
       <c r="H522" s="39"/>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="20"/>
+      <c r="K522" s="49">
+        <v>45254</v>
+      </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A523" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
-        <v>352</v>
+        <v>49</v>
       </c>
       <c r="C523" s="13"/>
-      <c r="D523" s="39"/>
+      <c r="D523" s="39">
+        <v>3</v>
+      </c>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
       <c r="G523" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H523" s="39">
-        <v>4</v>
-      </c>
+      <c r="H523" s="39"/>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
       <c r="K523" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B524" s="20"/>
+      <c r="A524" s="40"/>
+      <c r="B524" s="20" t="s">
+        <v>354</v>
+      </c>
       <c r="C524" s="13"/>
-      <c r="D524" s="39"/>
+      <c r="D524" s="39">
+        <v>3</v>
+      </c>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
       <c r="G524" s="13" t="str">
@@ -13788,15 +13824,19 @@
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="20"/>
+      <c r="K524" s="20" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A525" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B525" s="20"/>
+      <c r="A525" s="40"/>
+      <c r="B525" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="C525" s="13"/>
-      <c r="D525" s="39"/>
+      <c r="D525" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
       <c r="G525" s="13" t="str">
@@ -13810,16 +13850,18 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45383</v>
+        <v>45261</v>
       </c>
       <c r="B526" s="20"/>
-      <c r="C526" s="13"/>
+      <c r="C526" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D526" s="39"/>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
-      <c r="G526" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G526" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
@@ -13827,8 +13869,8 @@
       <c r="K526" s="20"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="40">
-        <v>45413</v>
+      <c r="A527" s="48" t="s">
+        <v>351</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13846,9 +13888,11 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B528" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B528" s="20" t="s">
+        <v>352</v>
+      </c>
       <c r="C528" s="13"/>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
@@ -13857,14 +13901,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H528" s="39"/>
+      <c r="H528" s="39">
+        <v>4</v>
+      </c>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="20"/>
+      <c r="K528" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13882,7 +13930,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13900,7 +13948,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13918,7 +13966,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13936,7 +13984,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13954,7 +14002,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13971,7 +14019,9 @@
       <c r="K534" s="20"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40"/>
+      <c r="A535" s="40">
+        <v>45505</v>
+      </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
       <c r="D535" s="39"/>
@@ -13987,7 +14037,9 @@
       <c r="K535" s="20"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" s="40"/>
+      <c r="A536" s="40">
+        <v>45536</v>
+      </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
       <c r="D536" s="39"/>
@@ -14003,7 +14055,9 @@
       <c r="K536" s="20"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A537" s="40"/>
+      <c r="A537" s="40">
+        <v>45566</v>
+      </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
       <c r="D537" s="39"/>
@@ -14019,7 +14073,9 @@
       <c r="K537" s="20"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40"/>
+      <c r="A538" s="40">
+        <v>45597</v>
+      </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
       <c r="D538" s="39"/>
@@ -14035,7 +14091,9 @@
       <c r="K538" s="20"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="40"/>
+      <c r="A539" s="40">
+        <v>45627</v>
+      </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
       <c r="D539" s="39"/>
@@ -14355,20 +14413,100 @@
       <c r="K558" s="20"/>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="41"/>
-      <c r="B559" s="15"/>
-      <c r="C559" s="42"/>
-      <c r="D559" s="43"/>
+      <c r="A559" s="40"/>
+      <c r="B559" s="20"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="39"/>
       <c r="E559" s="9"/>
-      <c r="F559" s="15"/>
-      <c r="G559" s="42" t="str">
+      <c r="F559" s="20"/>
+      <c r="G559" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H559" s="43"/>
+      <c r="H559" s="39"/>
       <c r="I559" s="9"/>
-      <c r="J559" s="12"/>
-      <c r="K559" s="15"/>
+      <c r="J559" s="11"/>
+      <c r="K559" s="20"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A560" s="40"/>
+      <c r="B560" s="20"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="39"/>
+      <c r="E560" s="9"/>
+      <c r="F560" s="20"/>
+      <c r="G560" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H560" s="39"/>
+      <c r="I560" s="9"/>
+      <c r="J560" s="11"/>
+      <c r="K560" s="20"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A561" s="40"/>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39"/>
+      <c r="E561" s="9"/>
+      <c r="F561" s="20"/>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="39"/>
+      <c r="I561" s="9"/>
+      <c r="J561" s="11"/>
+      <c r="K561" s="20"/>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A562" s="40"/>
+      <c r="B562" s="20"/>
+      <c r="C562" s="13"/>
+      <c r="D562" s="39"/>
+      <c r="E562" s="9"/>
+      <c r="F562" s="20"/>
+      <c r="G562" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H562" s="39"/>
+      <c r="I562" s="9"/>
+      <c r="J562" s="11"/>
+      <c r="K562" s="20"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A563" s="40"/>
+      <c r="B563" s="20"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="39"/>
+      <c r="E563" s="9"/>
+      <c r="F563" s="20"/>
+      <c r="G563" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H563" s="39"/>
+      <c r="I563" s="9"/>
+      <c r="J563" s="11"/>
+      <c r="K563" s="20"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A564" s="41"/>
+      <c r="B564" s="15"/>
+      <c r="C564" s="42"/>
+      <c r="D564" s="43"/>
+      <c r="E564" s="9"/>
+      <c r="F564" s="15"/>
+      <c r="G564" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H564" s="43"/>
+      <c r="I564" s="9"/>
+      <c r="J564" s="12"/>
+      <c r="K564" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14487,11 +14625,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.217</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
